--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0BFCC6-6004-47F5-A45D-D893BC2640A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D688097A-6F0A-4AA2-B8BF-BB2050A3BFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,14 +587,14 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>108640</xdr:rowOff>
+      <xdr:rowOff>110523</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557AC39D-F00A-4172-98CF-BF3BF1F49F3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61777F20-C129-4988-86B6-ECC2F2825445}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -773,7 +773,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946EA28F-ED80-43A2-80B0-121C17FBF1CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E316B7F0-270B-4BFC-9D49-F4AD1C4CA167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,7 +963,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D585EBF5-19B2-4F27-A005-558624CC7A4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23187950-9ECF-4865-88F8-766897E4D5CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,14 +1353,14 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>118186</xdr:rowOff>
+      <xdr:rowOff>120063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A87FCC-B6FC-4E0D-89C3-A8DBA236C214}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5BDBBEE-D598-43A0-A5BC-B456862C1B61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1537,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE286A2-3C4F-479A-A1D5-64E2545CCE5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0FCC52-C6D7-4AB9-AF91-129F4500AE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,14 +1815,14 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>74089</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>79211</xdr:rowOff>
+      <xdr:rowOff>96344</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780CC42C-7A4C-4796-B249-E732DF3AB035}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F10032A-43F2-4295-AA89-2B1F74304368}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2302,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF3832E1-1640-4C59-A37A-44822B91D299}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD778FA1-EF17-4FEB-B2BB-060B178A3B82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,7 +3129,7 @@
   <dimension ref="B3:B14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3269,7 +3269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B13:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -3679,7 +3679,7 @@
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
